--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam17-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam17-Itga5.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.07831966666667</v>
+        <v>23.77588366666667</v>
       </c>
       <c r="H2">
-        <v>90.234959</v>
+        <v>71.327651</v>
       </c>
       <c r="I2">
-        <v>0.2269842729019557</v>
+        <v>0.201093431146956</v>
       </c>
       <c r="J2">
-        <v>0.2269842729019557</v>
+        <v>0.2010934311469559</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N2">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O2">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P2">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q2">
-        <v>939.3147821030385</v>
+        <v>1091.454352451336</v>
       </c>
       <c r="R2">
-        <v>8453.833038927345</v>
+        <v>9823.089172062028</v>
       </c>
       <c r="S2">
-        <v>0.06530580343272441</v>
+        <v>0.07952585618692971</v>
       </c>
       <c r="T2">
-        <v>0.06530580343272442</v>
+        <v>0.07952585618692973</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.07831966666667</v>
+        <v>23.77588366666667</v>
       </c>
       <c r="H3">
-        <v>90.234959</v>
+        <v>71.327651</v>
       </c>
       <c r="I3">
-        <v>0.2269842729019557</v>
+        <v>0.201093431146956</v>
       </c>
       <c r="J3">
-        <v>0.2269842729019557</v>
+        <v>0.2010934311469559</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>121.337348</v>
       </c>
       <c r="O3">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P3">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q3">
-        <v>1216.541180216526</v>
+        <v>961.6342234899498</v>
       </c>
       <c r="R3">
-        <v>10948.87062194873</v>
+        <v>8654.708011409548</v>
       </c>
       <c r="S3">
-        <v>0.08457995199986112</v>
+        <v>0.07006686517849704</v>
       </c>
       <c r="T3">
-        <v>0.08457995199986117</v>
+        <v>0.07006686517849704</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.07831966666667</v>
+        <v>23.77588366666667</v>
       </c>
       <c r="H4">
-        <v>90.234959</v>
+        <v>71.327651</v>
       </c>
       <c r="I4">
-        <v>0.2269842729019557</v>
+        <v>0.201093431146956</v>
       </c>
       <c r="J4">
-        <v>0.2269842729019557</v>
+        <v>0.2010934311469559</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N4">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O4">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P4">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q4">
-        <v>345.8570726292566</v>
+        <v>303.4229532978484</v>
       </c>
       <c r="R4">
-        <v>3112.713653663309</v>
+        <v>2730.806579680635</v>
       </c>
       <c r="S4">
-        <v>0.02404569206328757</v>
+        <v>0.02210808916890003</v>
       </c>
       <c r="T4">
-        <v>0.02404569206328757</v>
+        <v>0.02210808916890003</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.07831966666667</v>
+        <v>23.77588366666667</v>
       </c>
       <c r="H5">
-        <v>90.234959</v>
+        <v>71.327651</v>
       </c>
       <c r="I5">
-        <v>0.2269842729019557</v>
+        <v>0.201093431146956</v>
       </c>
       <c r="J5">
-        <v>0.2269842729019557</v>
+        <v>0.2010934311469559</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N5">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O5">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P5">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q5">
-        <v>763.0761818526796</v>
+        <v>403.399664408486</v>
       </c>
       <c r="R5">
-        <v>6867.685636674117</v>
+        <v>3630.596979676374</v>
       </c>
       <c r="S5">
-        <v>0.05305282540608253</v>
+        <v>0.02939262061262916</v>
       </c>
       <c r="T5">
-        <v>0.05305282540608255</v>
+        <v>0.02939262061262916</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>95.90877800000001</v>
       </c>
       <c r="I6">
-        <v>0.2412566535243296</v>
+        <v>0.2703947904457373</v>
       </c>
       <c r="J6">
-        <v>0.2412566535243296</v>
+        <v>0.2703947904457373</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N6">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O6">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P6">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q6">
-        <v>998.3772797950593</v>
+        <v>1467.594288032687</v>
       </c>
       <c r="R6">
-        <v>8985.395518155532</v>
+        <v>13208.34859229419</v>
       </c>
       <c r="S6">
-        <v>0.06941212001371667</v>
+        <v>0.1069322707163337</v>
       </c>
       <c r="T6">
-        <v>0.0694121200137167</v>
+        <v>0.1069322707163337</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>95.90877800000001</v>
       </c>
       <c r="I7">
-        <v>0.2412566535243296</v>
+        <v>0.2703947904457373</v>
       </c>
       <c r="J7">
-        <v>0.2412566535243296</v>
+        <v>0.2703947904457373</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>121.337348</v>
       </c>
       <c r="O7">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P7">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q7">
         <v>1293.035196937861</v>
       </c>
       <c r="R7">
-        <v>11637.31677244075</v>
+        <v>11637.31677244074</v>
       </c>
       <c r="S7">
-        <v>0.08989819388741938</v>
+        <v>0.09421349677645215</v>
       </c>
       <c r="T7">
-        <v>0.08989819388741942</v>
+        <v>0.09421349677645216</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>95.90877800000001</v>
       </c>
       <c r="I8">
-        <v>0.2412566535243296</v>
+        <v>0.2703947904457373</v>
       </c>
       <c r="J8">
-        <v>0.2412566535243296</v>
+        <v>0.2703947904457373</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N8">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O8">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P8">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q8">
-        <v>367.603970413831</v>
+        <v>407.9893878455034</v>
       </c>
       <c r="R8">
-        <v>3308.435733724479</v>
+        <v>3671.904490609531</v>
       </c>
       <c r="S8">
-        <v>0.02555764381689595</v>
+        <v>0.02972703834175385</v>
       </c>
       <c r="T8">
-        <v>0.02555764381689596</v>
+        <v>0.02972703834175386</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>95.90877800000001</v>
       </c>
       <c r="I9">
-        <v>0.2412566535243296</v>
+        <v>0.2703947904457373</v>
       </c>
       <c r="J9">
-        <v>0.2412566535243296</v>
+        <v>0.2703947904457373</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N9">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O9">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P9">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q9">
-        <v>811.057099526097</v>
+        <v>542.420342133908</v>
       </c>
       <c r="R9">
-        <v>7299.513895734873</v>
+        <v>4881.783079205172</v>
       </c>
       <c r="S9">
-        <v>0.05638869580629754</v>
+        <v>0.03952198461119762</v>
       </c>
       <c r="T9">
-        <v>0.05638869580629756</v>
+        <v>0.03952198461119763</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.62767266666667</v>
+        <v>14.51831366666667</v>
       </c>
       <c r="H10">
-        <v>43.883018</v>
+        <v>43.554941</v>
       </c>
       <c r="I10">
-        <v>0.1103868727138606</v>
+        <v>0.1227940694288843</v>
       </c>
       <c r="J10">
-        <v>0.1103868727138606</v>
+        <v>0.1227940694288843</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N10">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O10">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P10">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q10">
-        <v>456.8070728628991</v>
+        <v>666.4768747986831</v>
       </c>
       <c r="R10">
-        <v>4111.263655766092</v>
+        <v>5998.291873188148</v>
       </c>
       <c r="S10">
-        <v>0.03175948412125623</v>
+        <v>0.04856102683370589</v>
       </c>
       <c r="T10">
-        <v>0.03175948412125624</v>
+        <v>0.0485610268337059</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.62767266666667</v>
+        <v>14.51831366666667</v>
       </c>
       <c r="H11">
-        <v>43.883018</v>
+        <v>43.554941</v>
       </c>
       <c r="I11">
-        <v>0.1103868727138606</v>
+        <v>0.1227940694288843</v>
       </c>
       <c r="J11">
-        <v>0.1103868727138606</v>
+        <v>0.1227940694288843</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>121.337348</v>
       </c>
       <c r="O11">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P11">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q11">
-        <v>591.6276695951406</v>
+        <v>587.2045592484964</v>
       </c>
       <c r="R11">
-        <v>5324.649026356265</v>
+        <v>5284.841033236467</v>
       </c>
       <c r="S11">
-        <v>0.04113287795752245</v>
+        <v>0.04278506492390157</v>
       </c>
       <c r="T11">
-        <v>0.04113287795752246</v>
+        <v>0.04278506492390158</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.62767266666667</v>
+        <v>14.51831366666667</v>
       </c>
       <c r="H12">
-        <v>43.883018</v>
+        <v>43.554941</v>
       </c>
       <c r="I12">
-        <v>0.1103868727138606</v>
+        <v>0.1227940694288843</v>
       </c>
       <c r="J12">
-        <v>0.1103868727138606</v>
+        <v>0.1227940694288843</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N12">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O12">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P12">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q12">
-        <v>168.1970304171909</v>
+        <v>185.2797427596983</v>
       </c>
       <c r="R12">
-        <v>1513.773273754718</v>
+        <v>1667.517684837285</v>
       </c>
       <c r="S12">
-        <v>0.01169388837020146</v>
+        <v>0.01349990509815302</v>
       </c>
       <c r="T12">
-        <v>0.01169388837020146</v>
+        <v>0.01349990509815303</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.62767266666667</v>
+        <v>14.51831366666667</v>
       </c>
       <c r="H13">
-        <v>43.883018</v>
+        <v>43.554941</v>
       </c>
       <c r="I13">
-        <v>0.1103868727138606</v>
+        <v>0.1227940694288843</v>
       </c>
       <c r="J13">
-        <v>0.1103868727138606</v>
+        <v>0.1227940694288843</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N13">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O13">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P13">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q13">
-        <v>371.0988090947369</v>
+        <v>246.328714550426</v>
       </c>
       <c r="R13">
-        <v>3339.889281852632</v>
+        <v>2216.958430953834</v>
       </c>
       <c r="S13">
-        <v>0.02580062226488048</v>
+        <v>0.01794807257312381</v>
       </c>
       <c r="T13">
-        <v>0.02580062226488049</v>
+        <v>0.01794807257312381</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>55.83720666666667</v>
+        <v>47.96923</v>
       </c>
       <c r="H14">
-        <v>167.51162</v>
+        <v>143.90769</v>
       </c>
       <c r="I14">
-        <v>0.4213722008598541</v>
+        <v>0.4057177089784224</v>
       </c>
       <c r="J14">
-        <v>0.4213722008598541</v>
+        <v>0.4057177089784224</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N14">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O14">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P14">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q14">
-        <v>1743.738154078698</v>
+        <v>2202.072722144147</v>
       </c>
       <c r="R14">
-        <v>15693.64338670828</v>
+        <v>19818.65449929732</v>
       </c>
       <c r="S14">
-        <v>0.1212332897321672</v>
+        <v>0.1604480464263889</v>
       </c>
       <c r="T14">
-        <v>0.1212332897321672</v>
+        <v>0.1604480464263889</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>55.83720666666667</v>
+        <v>47.96923</v>
       </c>
       <c r="H15">
-        <v>167.51162</v>
+        <v>143.90769</v>
       </c>
       <c r="I15">
-        <v>0.4213722008598541</v>
+        <v>0.4057177089784224</v>
       </c>
       <c r="J15">
-        <v>0.4213722008598541</v>
+        <v>0.4057177089784224</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>121.337348</v>
       </c>
       <c r="O15">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P15">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q15">
-        <v>2258.379525553752</v>
+        <v>1940.153051267347</v>
       </c>
       <c r="R15">
-        <v>20325.41572998376</v>
+        <v>17461.37746140612</v>
       </c>
       <c r="S15">
-        <v>0.1570136999676476</v>
+        <v>0.1413639811772148</v>
       </c>
       <c r="T15">
-        <v>0.1570136999676476</v>
+        <v>0.1413639811772148</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>55.83720666666667</v>
+        <v>47.96923</v>
       </c>
       <c r="H16">
-        <v>167.51162</v>
+        <v>143.90769</v>
       </c>
       <c r="I16">
-        <v>0.4213722008598541</v>
+        <v>0.4057177089784224</v>
       </c>
       <c r="J16">
-        <v>0.4213722008598541</v>
+        <v>0.4057177089784224</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N16">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O16">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P16">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q16">
-        <v>642.0469313294022</v>
+        <v>612.1734795678501</v>
       </c>
       <c r="R16">
-        <v>5778.42238196462</v>
+        <v>5509.561316110651</v>
       </c>
       <c r="S16">
-        <v>0.04463827408114013</v>
+        <v>0.04460435746875251</v>
       </c>
       <c r="T16">
-        <v>0.04463827408114014</v>
+        <v>0.04460435746875251</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>55.83720666666667</v>
+        <v>47.96923</v>
       </c>
       <c r="H17">
-        <v>167.51162</v>
+        <v>143.90769</v>
       </c>
       <c r="I17">
-        <v>0.4213722008598541</v>
+        <v>0.4057177089784224</v>
       </c>
       <c r="J17">
-        <v>0.4213722008598541</v>
+        <v>0.4057177089784224</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N17">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O17">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P17">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q17">
-        <v>1416.569906188542</v>
+        <v>813.88231685634</v>
       </c>
       <c r="R17">
-        <v>12749.12915569688</v>
+        <v>7324.94085170706</v>
       </c>
       <c r="S17">
-        <v>0.09848693707889913</v>
+        <v>0.0593013239060662</v>
       </c>
       <c r="T17">
-        <v>0.09848693707889916</v>
+        <v>0.05930132390606622</v>
       </c>
     </row>
   </sheetData>
